--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312765.6093280502</v>
+        <v>319443.5900221434</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3001330.373596265</v>
+        <v>2995243.613506387</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20361635.87782001</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4805098.675066959</v>
+        <v>4813077.091074065</v>
       </c>
     </row>
     <row r="11">
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>10.61706312961832</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>25.62029119463083</v>
@@ -1424,7 +1424,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V11" t="n">
         <v>22.56635248423083</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1604,58 +1604,58 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>22.56635248423083</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1774,22 +1774,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0.2968606583479769</v>
+      </c>
+      <c r="H16" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1856,55 +1856,55 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H17" t="n">
+      <c r="S17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="U17" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1926,49 +1926,49 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="E18" t="n">
-        <v>24.30129424928645</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2041,31 +2041,31 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>27.59002526031614</v>
+        <v>19.72731862540289</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>77.23901705407371</v>
       </c>
       <c r="I21" t="n">
-        <v>45.20536318881176</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,58 +2330,58 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11.86372679529251</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>153.2705021735903</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>82.46119763909351</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>53.57063283035821</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>162.4417619616647</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,73 +2792,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>117.8074216906837</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -2892,7 +2892,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>161.6539054008995</v>
       </c>
     </row>
     <row r="31">
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>186.1022620414493</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>88.46061606973225</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>119.4692756498584</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3308,28 +3308,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V35" t="n">
-        <v>179.7283339446665</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>215.3939976830282</v>
+        <v>39.84991521806149</v>
       </c>
       <c r="Y35" t="n">
         <v>215.3939976830282</v>
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>36.0048722425221</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>6.672679130316409</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>179.7283339446664</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y38" t="n">
-        <v>215.3939976830282</v>
+        <v>189.7190331592112</v>
       </c>
     </row>
     <row r="39">
@@ -3585,22 +3585,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>88.12509107326176</v>
+        <v>41.78525460953412</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.02492433367367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>177.9933921796108</v>
+      </c>
+      <c r="X41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="Y41" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="I41" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>190.9324654410926</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>58.6665359729289</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
+        <v>69.16164888709616</v>
+      </c>
+      <c r="W42" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
     </row>
     <row r="11">
@@ -5042,10 +5042,10 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>26.38889993046976</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M11" t="n">
         <v>51.75298821315428</v>
@@ -5063,13 +5063,13 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="S11" t="n">
         <v>76.6020827637447</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>50.72300074896609</v>
-      </c>
-      <c r="T11" t="n">
-        <v>24.84391873418747</v>
       </c>
       <c r="U11" t="n">
         <v>24.84391873418747</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C12" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I12" t="n">
         <v>2.049623295570466</v>
@@ -5124,13 +5124,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L12" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="M12" t="n">
         <v>26.38889993046976</v>
       </c>
-      <c r="M12" t="n">
-        <v>51.75298821315428</v>
-      </c>
       <c r="N12" t="n">
-        <v>51.75298821315428</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O12" t="n">
         <v>51.75298821315428</v>
@@ -5142,28 +5142,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>79.68686933990632</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>79.68686933990632</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>79.68686933990632</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>79.68686933990632</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V12" t="n">
-        <v>53.80778732512771</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W12" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="13">
@@ -5264,10 +5264,10 @@
         <v>24.84391873418747</v>
       </c>
       <c r="F14" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G14" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H14" t="n">
         <v>2.049623295570466</v>
@@ -5282,16 +5282,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L14" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="M14" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>52.77779986093951</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>78.14188814362403</v>
-      </c>
-      <c r="O14" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5300,28 +5300,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S14" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T14" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U14" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V14" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W14" t="n">
-        <v>76.6020827637447</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X14" t="n">
-        <v>76.6020827637447</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.72300074896609</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.049623295570466</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C15" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D15" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E15" t="n">
         <v>2.049623295570466</v>
@@ -5364,43 +5364,43 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M15" t="n">
-        <v>78.14188814362403</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N15" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O15" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P15" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q15" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U15" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V15" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F16" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G16" t="n">
-        <v>2.049623295570466</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H16" t="n">
-        <v>2.049623295570466</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I16" t="n">
-        <v>2.049623295570466</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J16" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K16" t="n">
         <v>2.049623295570466</v>
@@ -5458,28 +5458,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R16" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C17" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D17" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E17" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
         <v>2.207202020825291</v>
@@ -5522,13 +5522,13 @@
         <v>29.52132702853827</v>
       </c>
       <c r="M17" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N17" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
@@ -5537,28 +5537,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S17" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T17" t="n">
-        <v>85.81333917329844</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U17" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V17" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W17" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X17" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y17" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D18" t="n">
-        <v>110.3601010412646</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="E18" t="n">
-        <v>85.81333917329844</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="F18" t="n">
-        <v>57.94462678914073</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="G18" t="n">
-        <v>30.07591440498301</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J18" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
-        <v>56.83545203625125</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M18" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N18" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P18" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="19">
@@ -5689,28 +5689,28 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P19" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.4888536788635</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R19" t="n">
-        <v>108.4888536788635</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4888536788635</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="T19" t="n">
-        <v>80.62014129470579</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="U19" t="n">
-        <v>52.75142891054807</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="V19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X19" t="n">
         <v>2.207202020825291</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D20" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5783,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>512.7568786610034</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="C21" t="n">
-        <v>338.3038493798764</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="D21" t="n">
-        <v>338.3038493798764</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="E21" t="n">
-        <v>179.0663943744209</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="F21" t="n">
-        <v>179.0663943744209</v>
+        <v>97.30035225574173</v>
       </c>
       <c r="G21" t="n">
-        <v>179.0663943744209</v>
+        <v>97.30035225574173</v>
       </c>
       <c r="H21" t="n">
-        <v>65.69725878200022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y21" t="n">
-        <v>512.7568786610034</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="22">
@@ -5938,13 +5938,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.01731535111452</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="C24" t="n">
-        <v>89.01731535111452</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D24" t="n">
-        <v>89.01731535111452</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E24" t="n">
-        <v>89.01731535111452</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F24" t="n">
-        <v>89.01731535111452</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="X24" t="n">
-        <v>257.2326523711826</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.2326523711826</v>
+        <v>332.4649978087242</v>
       </c>
     </row>
     <row r="25">
@@ -6169,7 +6169,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>358.0940480307835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>73.39289344390789</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>73.39289344390789</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6306,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>627.7355178317791</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>419.8840176262463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>527.5764290961142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>527.5764290961142</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>527.5764290961142</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>284.1276524520142</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>40.6788758079141</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
-        <v>40.6788758079141</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>527.5764290961142</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>845.059759863481</v>
+        <v>397.4029371266039</v>
       </c>
       <c r="C30" t="n">
-        <v>670.606730582354</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D30" t="n">
-        <v>521.6723209211027</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E30" t="n">
-        <v>362.4348659156472</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,13 +6552,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6576,16 +6576,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y30" t="n">
-        <v>964.0571555106362</v>
+        <v>565.6182741466719</v>
       </c>
     </row>
     <row r="31">
@@ -6646,10 +6646,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>205.2136026847931</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>640.352991943436</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="W32" t="n">
-        <v>467.067986854209</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="X32" t="n">
-        <v>467.067986854209</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>422.7832973141145</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>109.3894334091926</v>
+        <v>359.631109967291</v>
       </c>
       <c r="C33" t="n">
-        <v>109.3894334091926</v>
+        <v>359.631109967291</v>
       </c>
       <c r="D33" t="n">
-        <v>109.3894334091926</v>
+        <v>359.631109967291</v>
       </c>
       <c r="E33" t="n">
-        <v>109.3894334091926</v>
+        <v>359.631109967291</v>
       </c>
       <c r="F33" t="n">
-        <v>109.3894334091926</v>
+        <v>359.631109967291</v>
       </c>
       <c r="G33" t="n">
-        <v>109.3894334091926</v>
+        <v>220.9002845499064</v>
       </c>
       <c r="H33" t="n">
-        <v>109.3894334091926</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>678.932513118762</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>567.4826101728238</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>567.4826101728238</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>567.4826101728238</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>567.4826101728238</v>
       </c>
       <c r="X33" t="n">
-        <v>277.6047704292607</v>
+        <v>359.631109967291</v>
       </c>
       <c r="Y33" t="n">
-        <v>277.6047704292607</v>
+        <v>359.631109967291</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="35">
@@ -6947,34 +6947,34 @@
         <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
-        <v>719.4169572236606</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
-        <v>861.5759907321129</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>851.4843753638859</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="S35" t="n">
-        <v>851.4843753638859</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="T35" t="n">
-        <v>851.4843753638859</v>
+        <v>492.6233486874887</v>
       </c>
       <c r="U35" t="n">
-        <v>851.4843753638859</v>
+        <v>275.0536540581672</v>
       </c>
       <c r="V35" t="n">
-        <v>669.9406037026066</v>
+        <v>275.0536540581672</v>
       </c>
       <c r="W35" t="n">
-        <v>452.3709090732851</v>
+        <v>275.0536540581672</v>
       </c>
       <c r="X35" t="n">
         <v>234.8012144439637</v>
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>228.3944971323047</v>
+        <v>724.0379034642692</v>
       </c>
       <c r="C36" t="n">
-        <v>228.3944971323047</v>
+        <v>724.0379034642692</v>
       </c>
       <c r="D36" t="n">
-        <v>228.3944971323047</v>
+        <v>575.103493803018</v>
       </c>
       <c r="E36" t="n">
-        <v>228.3944971323047</v>
+        <v>415.8660387975625</v>
       </c>
       <c r="F36" t="n">
-        <v>228.3944971323047</v>
+        <v>269.3314808244475</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6544172026922</v>
+        <v>130.6006554070629</v>
       </c>
       <c r="H36" t="n">
-        <v>108.2852816102715</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I36" t="n">
-        <v>17.98565246742797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L36" t="n">
-        <v>355.8291375786776</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="M36" t="n">
-        <v>569.0691952848756</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N36" t="n">
-        <v>782.3092529910735</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O36" t="n">
-        <v>792.1814322187836</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P36" t="n">
         <v>792.1814322187836</v>
@@ -7038,28 +7038,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>861.5759907321129</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>861.5759907321129</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="T36" t="n">
-        <v>861.5759907321129</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="U36" t="n">
-        <v>861.5759907321129</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="V36" t="n">
-        <v>861.5759907321129</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="W36" t="n">
-        <v>644.0062961027915</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="X36" t="n">
-        <v>436.1547958972586</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="Y36" t="n">
-        <v>228.3944971323047</v>
+        <v>760.4064612849986</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C37" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D37" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E37" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F37" t="n">
-        <v>151.763810304913</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C38" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D38" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E38" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
         <v>17.23151981464226</v>
@@ -7175,13 +7175,13 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>113.210609091369</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>293.2864606760276</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>506.5265183822256</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N38" t="n">
         <v>712.3810405894649</v>
@@ -7193,31 +7193,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U38" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V38" t="n">
-        <v>633.9146807345644</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W38" t="n">
-        <v>416.3449861052429</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="X38" t="n">
-        <v>416.3449861052429</v>
+        <v>426.43660147347</v>
       </c>
       <c r="Y38" t="n">
-        <v>198.7752914759215</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>653.815691967159</v>
+        <v>218.6763027085161</v>
       </c>
       <c r="C39" t="n">
-        <v>653.815691967159</v>
+        <v>218.6763027085161</v>
       </c>
       <c r="D39" t="n">
-        <v>504.8812823059077</v>
+        <v>218.6763027085161</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8812823059077</v>
+        <v>59.43884770306056</v>
       </c>
       <c r="F39" t="n">
-        <v>358.3467243327926</v>
+        <v>59.43884770306056</v>
       </c>
       <c r="G39" t="n">
-        <v>219.6158989154081</v>
+        <v>59.43884770306056</v>
       </c>
       <c r="H39" t="n">
-        <v>106.2467633229875</v>
+        <v>59.43884770306056</v>
       </c>
       <c r="I39" t="n">
         <v>17.23151981464226</v>
@@ -7254,22 +7254,22 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="M39" t="n">
-        <v>355.8291375786776</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="N39" t="n">
-        <v>569.0691952848756</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="O39" t="n">
-        <v>782.3092529910735</v>
+        <v>656.9516929332361</v>
       </c>
       <c r="P39" t="n">
-        <v>792.1814322187836</v>
+        <v>839.595170546587</v>
       </c>
       <c r="Q39" t="n">
         <v>861.5759907321129</v>
@@ -7284,19 +7284,19 @@
         <v>861.5759907321129</v>
       </c>
       <c r="U39" t="n">
-        <v>861.5759907321129</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V39" t="n">
-        <v>861.5759907321129</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W39" t="n">
-        <v>861.5759907321129</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X39" t="n">
-        <v>861.5759907321129</v>
+        <v>426.43660147347</v>
       </c>
       <c r="Y39" t="n">
-        <v>653.815691967159</v>
+        <v>218.6763027085161</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>44.54564482235524</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>83.73368301457742</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>127.4245336700137</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>151.763810304913</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.73144338400959</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>64.73144338400959</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>64.73144338400959</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>64.73144338400959</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>64.73144338400959</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>64.73144338400959</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>64.73144338400959</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X40" t="n">
-        <v>64.73144338400959</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23151981464226</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>660.8359782662478</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C41" t="n">
-        <v>445.2559140063055</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D41" t="n">
-        <v>445.2559140063055</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E41" t="n">
-        <v>445.2559140063055</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F41" t="n">
-        <v>445.2559140063055</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
-        <v>445.2559140063055</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H41" t="n">
-        <v>229.6758497463631</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I41" t="n">
         <v>17.07394108938743</v>
@@ -7421,7 +7421,7 @@
         <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
-        <v>717.3093417733771</v>
+        <v>614.8420490346726</v>
       </c>
       <c r="O41" t="n">
         <v>764.0369991773207</v>
@@ -7430,31 +7430,31 @@
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="R41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="S41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="T41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="U41" t="n">
-        <v>853.6970544693717</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="V41" t="n">
-        <v>660.8359782662478</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="W41" t="n">
-        <v>660.8359782662478</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="X41" t="n">
-        <v>660.8359782662478</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="Y41" t="n">
-        <v>660.8359782662478</v>
+        <v>232.6540053493298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>269.9280347519783</v>
+        <v>192.2811030233001</v>
       </c>
       <c r="C42" t="n">
-        <v>269.9280347519783</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="D42" t="n">
-        <v>269.9280347519783</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="E42" t="n">
-        <v>269.9280347519783</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="F42" t="n">
-        <v>269.9280347519783</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="G42" t="n">
-        <v>131.1972093345938</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="H42" t="n">
         <v>17.82807374217315</v>
@@ -7491,49 +7491,49 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>142.4315011472248</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>353.7215221283943</v>
+        <v>219.8269915258632</v>
       </c>
       <c r="M42" t="n">
-        <v>565.0115431095638</v>
+        <v>431.1170125070327</v>
       </c>
       <c r="N42" t="n">
-        <v>776.3015640907333</v>
+        <v>642.4070334882022</v>
       </c>
       <c r="O42" t="n">
-        <v>784.3024959560423</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P42" t="n">
-        <v>784.3024959560423</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>752.5275250222574</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>693.2683977768746</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>693.2683977768746</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U42" t="n">
-        <v>693.2683977768746</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V42" t="n">
-        <v>477.6883335169322</v>
+        <v>783.8368030682644</v>
       </c>
       <c r="W42" t="n">
-        <v>477.6883335169322</v>
+        <v>568.2567388083221</v>
       </c>
       <c r="X42" t="n">
-        <v>477.6883335169322</v>
+        <v>568.2567388083221</v>
       </c>
       <c r="Y42" t="n">
-        <v>269.9280347519783</v>
+        <v>360.4964400433682</v>
       </c>
     </row>
     <row r="43">
@@ -7594,7 +7594,7 @@
         <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="T43" t="n">
         <v>17.07394108938743</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8541,16 +8541,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
         <v>260.3515428840269</v>
       </c>
       <c r="M11" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>255.0333547912217</v>
@@ -8772,16 +8772,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1395076939139</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>167.7543251166491</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P12" t="n">
         <v>159.5946986089611</v>
@@ -8930,7 +8930,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
         <v>255.9665244219036</v>
@@ -8939,10 +8939,10 @@
         <v>255.0333547912217</v>
       </c>
       <c r="O14" t="n">
-        <v>254.6833393357264</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,10 +9012,10 @@
         <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>167.7543251166491</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N15" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9024,7 +9024,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,16 +9170,16 @@
         <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
-        <v>255.8883403615407</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>166.1444050401903</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M18" t="n">
-        <v>168.6093106869681</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,22 +10431,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>242.3147604003903</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10595,13 +10595,13 @@
         <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>339.6742254965835</v>
       </c>
       <c r="O35" t="n">
-        <v>373.6931947635578</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>353.9483774629024</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>357.5280316050465</v>
+        <v>309.6353666274674</v>
       </c>
       <c r="N36" t="n">
         <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>152.5681426542525</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>317.0384260719773</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,7 +10832,7 @@
         <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>430.2399379127967</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -10917,10 +10917,10 @@
         <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>143.9463056241383</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>162.1846227582699</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,10 +11069,10 @@
         <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>333.8446085143028</v>
       </c>
       <c r="O41" t="n">
-        <v>277.2978653650641</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>351.9786433972171</v>
+        <v>343.3554408268194</v>
       </c>
       <c r="M42" t="n">
         <v>355.5582975393612</v>
@@ -11151,13 +11151,13 @@
         <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
-        <v>150.6779938033424</v>
+        <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>396.2589826120931</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23203,7 +23203,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,16 +23218,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>200.8208869191</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23303,7 +23303,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>183.3997783916145</v>
@@ -23312,7 +23312,7 @@
         <v>197.4755583695005</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V11" t="n">
         <v>305.1859059859041</v>
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>124.8787130804079</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23355,7 +23355,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.59148166841231</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23394,13 +23394,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>180.1526940088467</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.1135504688497</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>384.3096932574806</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>316.9084496315363</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23540,10 +23540,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W14" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,16 +23571,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>135.0787279711701</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23628,13 +23628,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>229.1286306766888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23662,22 +23662,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>122.8546955387004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>142.3706881638279</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23744,10 +23744,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23777,22 +23777,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>125.5678236918632</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23814,25 +23814,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>123.8903626416102</v>
       </c>
       <c r="E18" t="n">
-        <v>133.3437862061145</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F18" t="n">
         <v>117.4791871330677</v>
       </c>
       <c r="G18" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23929,31 +23929,31 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T19" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>224.5476180635119</v>
+        <v>232.4103246984251</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>203.2608960285278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,16 +23972,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24023,16 +24023,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,28 +24048,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>34.99642718242275</v>
       </c>
       <c r="I21" t="n">
-        <v>44.19126966260332</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,7 +24111,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,16 +24218,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>327.6110753204746</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,28 +24248,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,13 +24297,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>20.35782233292231</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,22 +24330,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>79.530084975835</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24409,10 +24409,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24449,7 +24449,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>299.4691724331683</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,13 +24485,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,13 +24500,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>35.82600002105686</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24570,25 +24570,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>9.241409142173154</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,28 +24680,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>318.2910467450428</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,13 +24728,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24756,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48.72576195918364</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24780,7 +24780,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24816,7 +24816,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>44.02879037640488</v>
       </c>
     </row>
     <row r="31">
@@ -24886,13 +24886,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24917,10 +24917,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>168.5807795792337</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24965,25 +24965,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>7.701851881103124</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25008,16 +25008,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9360167816828238</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,19 +25044,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>80.69545304496319</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25196,28 +25196,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>7.701851881103124</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V35" t="n">
-        <v>148.0239245254684</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>133.8469710343848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>154.3371029954408</v>
+        <v>329.8811854604076</v>
       </c>
       <c r="Y35" t="n">
         <v>170.8439409730254</v>
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>130.5283114073453</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>130.6708380328942</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>235.5744035704686</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>112.3582607871067</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>133.8469710343848</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y38" t="n">
-        <v>170.8439409730254</v>
+        <v>196.5189054968424</v>
       </c>
     </row>
     <row r="39">
@@ -25473,22 +25473,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>1.27154177815332</v>
+        <v>47.61137824188096</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25524,13 +25524,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25591,7 +25591,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25609,13 +25609,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.5597290184211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
-        <v>151.8486281536646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,10 +25643,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>126.0505384984242</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>136.8197930290423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>171.2475765378022</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>172.8136750387107</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,10 +25719,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>113.0166351309089</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,10 +25764,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>163.6389382623291</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25834,10 +25834,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350057.1643459359</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350057.1643459359</v>
+        <v>350057.1643459357</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351692.9620346287</v>
+        <v>351692.962034629</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506968.6860557797</v>
+        <v>506968.6860557795</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506968.6860557795</v>
+        <v>506968.6860557796</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506968.6860557795</v>
+        <v>488451.7788506226</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488451.7788506226</v>
+        <v>488451.7788506223</v>
       </c>
     </row>
     <row r="14">
@@ -26317,40 +26317,40 @@
         <v>64504.44331886782</v>
       </c>
       <c r="D2" t="n">
-        <v>64504.44331886782</v>
+        <v>68859.35582065163</v>
       </c>
       <c r="E2" t="n">
         <v>68859.35582065162</v>
       </c>
       <c r="F2" t="n">
-        <v>68859.35582065163</v>
+        <v>68859.35582065162</v>
       </c>
       <c r="G2" t="n">
-        <v>69180.83107499294</v>
+        <v>69180.83107499295</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="J2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.4035187994</v>
+        <v>96057.36704470609</v>
       </c>
       <c r="M2" t="n">
-        <v>96057.36704470613</v>
+        <v>96057.3670447061</v>
       </c>
       <c r="N2" t="n">
         <v>96057.36704470612</v>
       </c>
       <c r="O2" t="n">
-        <v>95777.59137569285</v>
+        <v>95777.59137569283</v>
       </c>
       <c r="P2" t="n">
         <v>64504.44331886782</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
-        <v>7649.655304310485</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16773.42562193359</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="C4" t="n">
-        <v>16773.42562193358</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="D4" t="n">
-        <v>16773.42562193359</v>
+        <v>17259.16122044736</v>
       </c>
       <c r="E4" t="n">
-        <v>17951.06575311121</v>
+        <v>17259.16122044736</v>
       </c>
       <c r="F4" t="n">
-        <v>17951.06575311121</v>
+        <v>17259.16122044736</v>
       </c>
       <c r="G4" t="n">
-        <v>18037.99796140191</v>
+        <v>17342.80185901182</v>
       </c>
       <c r="H4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>26289.91179915751</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>26289.91179915752</v>
+        <v>24335.47268063906</v>
       </c>
       <c r="M4" t="n">
-        <v>25305.85634707758</v>
+        <v>24335.47268063907</v>
       </c>
       <c r="N4" t="n">
-        <v>25305.85634707758</v>
+        <v>24335.47268063906</v>
       </c>
       <c r="O4" t="n">
-        <v>25230.20039407688</v>
+        <v>24262.6813373084</v>
       </c>
       <c r="P4" t="n">
-        <v>16773.42562193359</v>
+        <v>16126.11082971696</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
         <v>1557.713704633554</v>
@@ -26497,7 +26497,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
         <v>13095.95505912812</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14103.41769693424</v>
+        <v>14750.73248915087</v>
       </c>
       <c r="C6" t="n">
-        <v>14103.41769693424</v>
+        <v>14750.73248915087</v>
       </c>
       <c r="D6" t="n">
-        <v>14103.41769693424</v>
+        <v>8456.449841782538</v>
       </c>
       <c r="E6" t="n">
-        <v>41700.92105859637</v>
+        <v>50042.4808955707</v>
       </c>
       <c r="F6" t="n">
-        <v>49350.57636290687</v>
+        <v>50042.4808955707</v>
       </c>
       <c r="G6" t="n">
-        <v>48925.48501637045</v>
+        <v>49620.68111876055</v>
       </c>
       <c r="H6" t="n">
-        <v>1169.035813548515</v>
+        <v>2176.679400086723</v>
       </c>
       <c r="I6" t="n">
-        <v>58752.82295588018</v>
+        <v>59760.46654241841</v>
       </c>
       <c r="J6" t="n">
-        <v>58752.82295588021</v>
+        <v>59760.46654241846</v>
       </c>
       <c r="K6" t="n">
-        <v>58752.8229558802</v>
+        <v>59760.46654241846</v>
       </c>
       <c r="L6" t="n">
-        <v>58752.82295588021</v>
+        <v>58625.9393049389</v>
       </c>
       <c r="M6" t="n">
-        <v>57655.55563850043</v>
+        <v>58625.93930493892</v>
       </c>
       <c r="N6" t="n">
-        <v>57655.55563850042</v>
+        <v>58625.93930493893</v>
       </c>
       <c r="O6" t="n">
-        <v>57571.19575368151</v>
+        <v>58538.71481044999</v>
       </c>
       <c r="P6" t="n">
-        <v>47731.01769693424</v>
+        <v>48378.33248915087</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26793,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>25.62029119463083</v>
@@ -26817,7 +26817,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
         <v>215.3939976830282</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
         <v>24.58512791403969</v>
       </c>
       <c r="M11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>25.62029119463083</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>25.62029119463083</v>
@@ -35577,7 +35577,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>25.62029119463084</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>25.62029119463083</v>
@@ -35659,10 +35659,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O14" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="P14" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N15" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,16 +35890,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="N17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="N17" t="n">
-        <v>26.47527676494983</v>
-      </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="M18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M18" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,22 +37151,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>110.973048317057</v>
       </c>
       <c r="O33" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,13 +37315,13 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>110.2611618999926</v>
       </c>
       <c r="O35" t="n">
-        <v>143.5949833418711</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>215.3939976830282</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="N36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>9.971898209808115</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>96.94857502699675</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
@@ -37552,7 +37552,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>200.8268743162057</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>9.971898209808115</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>22.20284867224837</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,10 +37789,10 @@
         <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>104.4315449177119</v>
       </c>
       <c r="O41" t="n">
-        <v>47.19965394337734</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>213.4242636173429</v>
+        <v>204.8010610469452</v>
       </c>
       <c r="M42" t="n">
         <v>213.4242636173429</v>
@@ -37871,13 +37871,13 @@
         <v>213.4242636173429</v>
       </c>
       <c r="O42" t="n">
-        <v>8.081749358897964</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
